--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31704_PPF점착_1500_T0915_0_M5</t>
+          <t>31704_23311_1500_T0915_0_M5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31704_TOP COATING_1500_T01715_0_M5</t>
+          <t>31704_12400_1500_T01715_0_M5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31704_TOP COATING_1500_T01715_0_M5</t>
+          <t>31704_12400_1500_T01715_0_M5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31798_인쇄_1500_배합X_0_M7</t>
+          <t>31798_20906_1500_배합X_0_M7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31540_염료점착_1500_T02296_2_M5</t>
+          <t>31540_20300_1500_T02296_2_M5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31864_염료점착_1500_T02515_1_M5</t>
+          <t>31864_20300_1500_T02515_1_M5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -828,12 +828,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31864_염료점착_1500_T02515_2_M5</t>
+          <t>31864_20300_1500_T02515_2_M5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31798_안료접착_1500_T02014_0_M7</t>
+          <t>31798_20902_1500_T02014_0_M7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31798_안료접착_1500_T02014_0_M7</t>
+          <t>31798_20902_1500_T02014_0_M7</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>31800_안료접착_1500_T02126_0_M7</t>
+          <t>31800_20902_1500_T02126_0_M7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -994,12 +994,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31800_안료접착_1500_T02126_0_M7</t>
+          <t>31800_20902_1500_T02126_0_M7</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31802_안료접착_1500_T02015_0_M7</t>
+          <t>31802_20902_1500_T02015_0_M7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1077,12 +1077,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31802_안료접착_1500_T02015_0_M7</t>
+          <t>31802_20902_1500_T02015_0_M7</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31798_투명점착_1500_WRF065_0_M7</t>
+          <t>31798_20500_1500_WRF065_0_M7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31540_유광 S/R_1500_T02149_1_M5</t>
+          <t>31540_20700_1500_T02149_1_M5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31540_유광 S/R_1500_T02149_2_M5</t>
+          <t>31540_20700_1500_T02149_2_M5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31540_유광 S/R_1500_T02149_2_M5</t>
+          <t>31540_20700_1500_T02149_2_M5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31864_유광 S/R_1500_W1809_1_M5</t>
+          <t>31864_20700_1500_W1809_1_M5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31864_유광 S/R_1500_W1809_2_M5</t>
+          <t>31864_20700_1500_W1809_2_M5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31798_MIBK SR_1500_W1817_0_M7</t>
+          <t>31798_20706_1500_W1817_0_M7</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>31798_MIBK SR_1500_W1817_0_M7</t>
+          <t>31798_20706_1500_W1817_0_M7</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>31800_MIBK SR_1500_T02149_0_M7</t>
+          <t>31800_20706_1500_T02149_0_M7</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1492,12 +1492,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>31800_MIBK SR_1500_T02149_0_M7</t>
+          <t>31800_20706_1500_T02149_0_M7</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>31802_MIBK SR_1500_T02149_0_M7</t>
+          <t>31802_20706_1500_T02149_0_M7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>31802_MIBK SR_1500_T02149_0_M7</t>
+          <t>31802_20706_1500_T02149_0_M7</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>31800_투명점착_1500_WRF065_0_M7</t>
+          <t>31800_20500_1500_WRF065_0_M7</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">

--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -555,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="S2" t="n">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="T2" t="n">
         <v>120</v>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
         <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="S3" t="n">
         <v>2520</v>
       </c>
       <c r="T3" t="n">
-        <v>2280</v>
+        <v>840</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2280</v>
+        <v>840</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>

--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,13 +552,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -579,22 +579,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31704_23311_1500_T0915_0_M5</t>
+          <t>31704_23311_1500_T01521|T0915_0_M5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31704_12400_1500_T01715_0_M5</t>
+          <t>31704_12400_1500_T01288|T01715_0_M5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>투명</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M2" t="b">
@@ -604,21 +604,21 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>(0, '투명', 'SR', False, False, False, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>1620</v>
+        <v>150</v>
       </c>
       <c r="T2" t="n">
         <v>120</v>
@@ -635,49 +635,49 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31704_12400_1500_T01715_0_M5</t>
+          <t>31704_12400_1500_T01288|T01715_0_M5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31798_20906_1500_배합X_0_M7</t>
+          <t>31798_20902_1500_T02014_0_M7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>인쇄</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M3" t="b">
@@ -687,44 +687,44 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>(0, 'SR', '인쇄', False, False, False, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1680</v>
+        <v>180</v>
       </c>
       <c r="S3" t="n">
-        <v>2520</v>
+        <v>240</v>
       </c>
       <c r="T3" t="n">
-        <v>840</v>
+        <v>60</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V3" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -745,22 +745,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31540_20300_1500_T02296_2_M5</t>
+          <t>31798_20902_1500_T02014_0_M7</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31864_20300_1500_T02515_1_M5</t>
+          <t>31800_20902_1500_T02126_0_M7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M4" t="b">
@@ -773,18 +773,18 @@
         <v>1</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>(2, '염료', '염료', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="S4" t="n">
-        <v>1020</v>
+        <v>390</v>
       </c>
       <c r="T4" t="n">
         <v>120</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -828,22 +828,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31864_20300_1500_T02515_2_M5</t>
+          <t>31800_20902_1500_T02126_0_M7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31798_20902_1500_T02014_0_M7</t>
+          <t>31802_20902_1500_T02015_0_M7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M5" t="b">
@@ -853,21 +853,21 @@
         <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>(2, '염료', '안료', False, False, False, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1470</v>
+        <v>420</v>
       </c>
       <c r="S5" t="n">
-        <v>1590</v>
+        <v>540</v>
       </c>
       <c r="T5" t="n">
         <v>120</v>
@@ -884,13 +884,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -911,22 +911,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31798_20902_1500_T02014_0_M7</t>
+          <t>31540_20300_1500_T02296_2_M5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>31800_20902_1500_T02126_0_M7</t>
+          <t>31864_20300_1500_W2044|T02515_1_M5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="M6" t="b">
@@ -943,14 +943,14 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>(2, '안료', '안료', False, False, True, False)</t>
+          <t>(3, '염료', '염료', False, False, True, False)</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1710</v>
+        <v>60</v>
       </c>
       <c r="S6" t="n">
-        <v>1830</v>
+        <v>180</v>
       </c>
       <c r="T6" t="n">
         <v>120</v>
@@ -967,49 +967,49 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>setup_plus_idle</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31800_20902_1500_T02126_0_M7</t>
+          <t>31540_20700_1500_T02149|W1809_2_M5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31802_20902_1500_T02015_0_M7</t>
+          <t>31864_20700_1500_W1809_1_M5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M7" t="b">
@@ -1022,44 +1022,44 @@
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>(2, '안료', '안료', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2010</v>
+        <v>90</v>
       </c>
       <c r="S7" t="n">
-        <v>2130</v>
+        <v>210</v>
       </c>
       <c r="T7" t="n">
         <v>120</v>
       </c>
       <c r="U7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="W7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1067,32 +1067,32 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31802_20902_1500_T02015_0_M7</t>
+          <t>31864_20700_1500_W1809_2_M5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31798_20500_1500_WRF065_0_M7</t>
+          <t>31798_20706_1500_T02149|W1817_0_M7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>투명</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M8" t="b">
@@ -1102,47 +1102,47 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>(2, '안료', '투명', False, False, False, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2310</v>
+        <v>270</v>
       </c>
       <c r="S8" t="n">
-        <v>2430</v>
+        <v>330</v>
       </c>
       <c r="T8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1153,29 +1153,29 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31540_20700_1500_T02149_1_M5</t>
+          <t>31798_20706_1500_T02149|W1817_0_M7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31540_20700_1500_T02149_2_M5</t>
+          <t>31800_20706_1500_T02149|W1817_0_M7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M9" t="b">
@@ -1192,23 +1192,23 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>(3, 'SR', 'SR', False, False, True, True)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>780</v>
+        <v>360</v>
       </c>
       <c r="S9" t="n">
-        <v>900</v>
+        <v>420</v>
       </c>
       <c r="T9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1236,29 +1236,29 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31540_20700_1500_T02149_2_M5</t>
+          <t>31800_20706_1500_T02149|W1817_0_M7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31864_20700_1500_W1809_1_M5</t>
+          <t>31802_20706_1500_T02149_0_M7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M10" t="b">
@@ -1271,27 +1271,27 @@
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>(3, 'SR', 'SR', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1110</v>
+        <v>450</v>
       </c>
       <c r="S10" t="n">
-        <v>1290</v>
+        <v>570</v>
       </c>
       <c r="T10" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="U10" t="n">
         <v>60</v>
       </c>
       <c r="V10" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W10" t="n">
         <v>60</v>
@@ -1299,49 +1299,49 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31864_20700_1500_W1809_2_M5</t>
+          <t>31802_20706_1500_T02149_0_M7</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31798_20706_1500_W1817_0_M7</t>
+          <t>31798_20500_1500_WRF065_0_M7</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M11" t="b">
@@ -1354,278 +1354,29 @@
         <v>1</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>(3, 'SR', 'SR', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1590</v>
+        <v>600</v>
       </c>
       <c r="S11" t="n">
-        <v>1710</v>
+        <v>660</v>
       </c>
       <c r="T11" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U11" t="n">
         <v>60</v>
       </c>
       <c r="V11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>59</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>setup_plus_idle</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>31798_20706_1500_W1817_0_M7</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>31800_20706_1500_T02149_0_M7</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>(3, 'SR', 'SR', False, False, True, False)</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>1770</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2010</v>
-      </c>
-      <c r="T12" t="n">
-        <v>240</v>
-      </c>
-      <c r="U12" t="n">
-        <v>60</v>
-      </c>
-      <c r="V12" t="n">
-        <v>180</v>
-      </c>
-      <c r="W12" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>71</v>
-      </c>
-      <c r="C13" t="n">
-        <v>77</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>pure_idle</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>31800_20706_1500_T02149_0_M7</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>31802_20706_1500_T02149_0_M7</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>(3, 'SR', 'SR', False, False, True, True)</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>2130</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2310</v>
-      </c>
-      <c r="T13" t="n">
-        <v>180</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>180</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>81</v>
-      </c>
-      <c r="C14" t="n">
-        <v>83</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>pure_setup</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>31802_20706_1500_T02149_0_M7</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>31800_20500_1500_WRF065_0_M7</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>(3, 'SR', '투명', False, False, False, False)</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>2430</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2490</v>
-      </c>
-      <c r="T14" t="n">
-        <v>60</v>
-      </c>
-      <c r="U14" t="n">
-        <v>60</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
         <v>60</v>
       </c>
     </row>

--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31704_23311_1500_T01521|T0915_0_M5</t>
+          <t>31704_23311_1300_T01521|T0915_4_M5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31704_12400_1500_T01288|T01715_0_M5</t>
+          <t>31704_12400_1300_T01288|T01715_4_M5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31704_12400_1500_T01288|T01715_0_M5</t>
+          <t>31704_12400_1300_T01288|T01715_4_M5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31798_20902_1500_T02014_0_M7</t>
+          <t>31798_20902_1300_T02014_4_M7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31798_20902_1500_T02014_0_M7</t>
+          <t>31798_20902_1300_T02014_4_M7</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31800_20902_1500_T02126_0_M7</t>
+          <t>31800_20902_1300_T02126_4_M7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -828,12 +828,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31800_20902_1500_T02126_0_M7</t>
+          <t>31800_20902_1300_T02126_4_M7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31802_20902_1500_T02015_0_M7</t>
+          <t>31802_20902_1300_T02015_4_M7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -887,10 +887,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -911,12 +911,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31540_20300_1500_T02296_2_M5</t>
+          <t>31540_20300_1300_T02296_4_M5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>31864_20300_1500_W2044|T02515_1_M5</t>
+          <t>31864_20300_1300_W2044|T02515_4_M5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="T6" t="n">
         <v>120</v>
@@ -970,36 +970,36 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_idle</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31540_20700_1500_T02149|W1809_2_M5</t>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31864_20700_1500_W1809_1_M5</t>
+          <t>31864_20700_1300_W1809_4_M5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1030,22 +1030,22 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="S7" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="T7" t="n">
         <v>120</v>
       </c>
       <c r="U7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="W7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
         <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31864_20700_1500_W1809_2_M5</t>
+          <t>31864_20700_1300_W1809_4_M5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31798_20706_1500_T02149|W1817_0_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="R8" t="n">
+        <v>210</v>
+      </c>
+      <c r="S8" t="n">
         <v>270</v>
-      </c>
-      <c r="S8" t="n">
-        <v>330</v>
       </c>
       <c r="T8" t="n">
         <v>60</v>
@@ -1136,13 +1136,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31798_20706_1500_T02149|W1817_0_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31800_20706_1500_T02149|W1817_0_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1196,19 +1196,19 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="S9" t="n">
         <v>420</v>
       </c>
       <c r="T9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1229,26 +1229,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_idle</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31800_20706_1500_T02149|W1817_0_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31802_20706_1500_T02149_0_M7</t>
+          <t>31802_20706_1300_T02149_4_M7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1288,13 +1288,13 @@
         <v>120</v>
       </c>
       <c r="U10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="W10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31802_20706_1500_T02149_0_M7</t>
+          <t>31802_20706_1300_T02149_4_M7</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31798_20500_1500_WRF065_0_M7</t>
+          <t>31798_20500_1300_WRF065_4_M7</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">

--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -667,7 +667,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M7</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M7</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M7</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -828,12 +828,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M7</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M7</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M7</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M7</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M7</t>
+          <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">

--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,504 +882,6 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>pure_setup</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>31540_20300_1500_T02296_2_M5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>31864_20300_1500_W2044|T02515_1_M5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>(3, '염료', '염료', False, False, True, False)</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>60</v>
-      </c>
-      <c r="S6" t="n">
-        <v>180</v>
-      </c>
-      <c r="T6" t="n">
-        <v>120</v>
-      </c>
-      <c r="U6" t="n">
-        <v>120</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>setup_plus_idle</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>31540_20700_1500_T02149|W1809_2_M5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>31864_20700_1500_W1809_1_M5</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>no_setup_machine</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>90</v>
-      </c>
-      <c r="S7" t="n">
-        <v>210</v>
-      </c>
-      <c r="T7" t="n">
-        <v>120</v>
-      </c>
-      <c r="U7" t="n">
-        <v>60</v>
-      </c>
-      <c r="V7" t="n">
-        <v>60</v>
-      </c>
-      <c r="W7" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>pure_setup</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>31864_20700_1500_W1809_2_M5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>31798_20706_1500_T02149|W1817_0_M7</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>no_setup_machine</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>270</v>
-      </c>
-      <c r="S8" t="n">
-        <v>330</v>
-      </c>
-      <c r="T8" t="n">
-        <v>60</v>
-      </c>
-      <c r="U8" t="n">
-        <v>60</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>pure_idle</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>31798_20706_1500_T02149|W1817_0_M7</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>31800_20706_1500_T02149|W1817_0_M7</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>no_setup_machine</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>360</v>
-      </c>
-      <c r="S9" t="n">
-        <v>420</v>
-      </c>
-      <c r="T9" t="n">
-        <v>60</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>60</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>setup_plus_idle</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>31800_20706_1500_T02149|W1817_0_M7</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>31802_20706_1500_T02149_0_M7</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>no_setup_machine</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>450</v>
-      </c>
-      <c r="S10" t="n">
-        <v>570</v>
-      </c>
-      <c r="T10" t="n">
-        <v>120</v>
-      </c>
-      <c r="U10" t="n">
-        <v>60</v>
-      </c>
-      <c r="V10" t="n">
-        <v>60</v>
-      </c>
-      <c r="W10" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>pure_setup</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>31802_20706_1500_T02149_0_M7</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>31798_20500_1500_WRF065_0_M7</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>no_setup_machine</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>600</v>
-      </c>
-      <c r="S11" t="n">
-        <v>660</v>
-      </c>
-      <c r="T11" t="n">
-        <v>60</v>
-      </c>
-      <c r="U11" t="n">
-        <v>60</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="T2" t="n">
         <v>120</v>
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="S3" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="T3" t="n">
         <v>60</v>
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="S4" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="T4" t="n">
         <v>120</v>
@@ -804,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>420</v>
+        <v>690</v>
       </c>
       <c r="S5" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="T5" t="n">
         <v>120</v>
@@ -884,49 +884,49 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>setup_plus_idle</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>32528_23100_1300_T01862_4_M5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M6" t="b">
@@ -939,27 +939,27 @@
         <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>(3, '염료', '염료', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>960</v>
       </c>
       <c r="S6" t="n">
-        <v>150</v>
+        <v>2940</v>
       </c>
       <c r="T6" t="n">
-        <v>120</v>
+        <v>1980</v>
       </c>
       <c r="U6" t="n">
         <v>120</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="W6" t="n">
         <v>120</v>
@@ -967,16 +967,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -987,29 +987,29 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+          <t>31798_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>31800_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="M7" t="b">
@@ -1026,23 +1026,23 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>no_setup_machine</t>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>60</v>
+        <v>1350</v>
       </c>
       <c r="S7" t="n">
-        <v>180</v>
+        <v>1380</v>
       </c>
       <c r="T7" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1050,16 +1050,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1067,32 +1067,32 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>31540_20300_1300_T02296_4_M5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+          <t>31864_20300_1300_W2044|T02515_4_M5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="M8" t="b">
@@ -1105,30 +1105,30 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>no_setup_machine</t>
+          <t>(3, '염료', '염료', False, False, True, False)</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>210</v>
+        <v>1710</v>
       </c>
       <c r="S8" t="n">
-        <v>270</v>
+        <v>1830</v>
       </c>
       <c r="T8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1136,13 +1136,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1153,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>32528_20700_1300_T02149|W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>31800_20706_1300_T02149|W1817_4_M6</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1196,19 +1196,19 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="S9" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="T9" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1236,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>31800_20706_1300_T02149|W1817_4_M6</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1282,16 +1282,16 @@
         <v>450</v>
       </c>
       <c r="S10" t="n">
-        <v>570</v>
+        <v>690</v>
       </c>
       <c r="T10" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1302,82 +1302,331 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>31802_20706_1300_T02149_4_M6</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>810</v>
+      </c>
+      <c r="S11" t="n">
+        <v>960</v>
+      </c>
+      <c r="T11" t="n">
+        <v>150</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>150</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38</v>
+      </c>
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>pure_setup</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>no_setup_machine</t>
         </is>
       </c>
-      <c r="R11" t="n">
-        <v>600</v>
-      </c>
-      <c r="S11" t="n">
-        <v>660</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="R12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1140</v>
+      </c>
+      <c r="T12" t="n">
         <v>60</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>60</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>setup_plus_idle</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>31802_20500_1300_WRF065_4_M6</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>1530</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1710</v>
+      </c>
+      <c r="T13" t="n">
+        <v>180</v>
+      </c>
+      <c r="U13" t="n">
+        <v>120</v>
+      </c>
+      <c r="V13" t="n">
+        <v>60</v>
+      </c>
+      <c r="W13" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>86</v>
+      </c>
+      <c r="C14" t="n">
+        <v>92</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>31864_20700_1300_W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>2580</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2760</v>
+      </c>
+      <c r="T14" t="n">
+        <v>180</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>180</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>same_mixture</t>
+          <t>same_chemical</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -579,12 +579,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31704_23311_1300_T01521|T0915_4_M5</t>
+          <t>32571_23312_1300_T01639_4_M3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31704_12400_1300_T01288|T01715_4_M5</t>
+          <t>32571_23316_1300_T01640_4_M3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="T2" t="n">
         <v>120</v>
@@ -638,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31704_12400_1300_T01288|T01715_4_M5</t>
+          <t>32571_23316_1300_T01640_4_M3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M6</t>
+          <t>32571_20500_1300_T01514_4_M3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="S3" t="n">
         <v>300</v>
       </c>
       <c r="T3" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U3" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -745,12 +745,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M6</t>
+          <t>32571_20500_1300_T01514_4_M3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M6</t>
+          <t>32571_12400_1300_T01713_4_M3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="S4" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="T4" t="n">
         <v>120</v>
@@ -804,13 +804,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -818,22 +818,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M6</t>
+          <t>32571_12400_1300_T01713_4_M3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M6</t>
+          <t>32413_12400_1300_T01288|T01715_4_M10</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>690</v>
+        <v>480</v>
       </c>
       <c r="S5" t="n">
-        <v>810</v>
+        <v>540</v>
       </c>
       <c r="T5" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U5" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -887,36 +887,36 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M6</t>
+          <t>32041_12400_1300_T01576_4_M10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>32528_23100_1300_T01862_4_M5</t>
+          <t>32453_23311_1300_T0915|T02098_4_M10</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -947,69 +947,69 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
       <c r="S6" t="n">
-        <v>2940</v>
+        <v>600</v>
       </c>
       <c r="T6" t="n">
-        <v>1980</v>
+        <v>60</v>
       </c>
       <c r="U6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V6" t="n">
-        <v>1860</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31798_20906_1300_None_4_M6</t>
+          <t>32453_23311_1300_T0915|T02098_4_M10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31800_20906_1300_None_4_M6</t>
+          <t>32453_12400_1300_T02244_4_M10</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>인쇄</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>인쇄</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M7" t="b">
@@ -1026,40 +1026,40 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1350</v>
+        <v>660</v>
       </c>
       <c r="S7" t="n">
-        <v>1380</v>
+        <v>780</v>
       </c>
       <c r="T7" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1067,32 +1067,32 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>32453_12400_1300_T02244_4_M10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>31722_23311_1300_T0915|T01362_4_M10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M8" t="b">
@@ -1105,67 +1105,67 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>(3, '염료', '염료', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1710</v>
+        <v>840</v>
       </c>
       <c r="S8" t="n">
-        <v>1830</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>32528_20700_1300_T02149|W1809_4_M5</t>
+          <t>31722_12400_1300_T01716|T01362_4_M10</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+          <t>31704_12400_1300_T01288|T01715_4_M10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1196,59 +1196,59 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>60</v>
+        <v>930</v>
       </c>
       <c r="S9" t="n">
-        <v>390</v>
+        <v>990</v>
       </c>
       <c r="T9" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V9" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+          <t>31704_12400_1300_T01288|T01715_4_M10</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M6</t>
+          <t>31772_23100_1300_T01226|W2060_4_M10</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1279,59 +1279,59 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>450</v>
+        <v>1020</v>
       </c>
       <c r="S10" t="n">
-        <v>690</v>
+        <v>1080</v>
       </c>
       <c r="T10" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V10" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M6</t>
+          <t>31772_20710_1300_T01020_4_M10</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M6</t>
+          <t>32556_23100_1300_T01226_4_M10</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1362,36 +1362,36 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>810</v>
+        <v>1140</v>
       </c>
       <c r="S11" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V11" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M6</t>
+          <t>32556_23100_1300_T01226_4_M10</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M6</t>
+          <t>31600_20902_1300_T02295_4_M11</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1445,59 +1445,59 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1080</v>
+        <v>1230</v>
       </c>
       <c r="S12" t="n">
-        <v>1140</v>
+        <v>1350</v>
       </c>
       <c r="T12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>31802_20500_1300_WRF065_4_M6</t>
+          <t>31600_20902_1300_T02295_4_M11</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+          <t>31602_20902_1300_T02390|T02293_4_M11</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1528,19 +1528,19 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1530</v>
+        <v>1380</v>
       </c>
       <c r="S13" t="n">
-        <v>1710</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="U13" t="n">
         <v>120</v>
       </c>
       <c r="V13" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>120</v>
@@ -1548,85 +1548,3488 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>31602_20902_1300_T02390|T02293_4_M11</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>32016_20902_1300_W2039|T02496_4_M11</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>1560</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1680</v>
+      </c>
+      <c r="T14" t="n">
+        <v>120</v>
+      </c>
+      <c r="U14" t="n">
+        <v>120</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>56</v>
+      </c>
+      <c r="C15" t="n">
+        <v>60</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>32016_20902_1300_W2039|T02496_4_M11</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>32470_23311_1300_T0915_4_M11</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1680</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1800</v>
+      </c>
+      <c r="T15" t="n">
+        <v>120</v>
+      </c>
+      <c r="U15" t="n">
+        <v>120</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>61</v>
+      </c>
+      <c r="C16" t="n">
+        <v>67</v>
+      </c>
+      <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>setup_plus_idle</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>32470_23311_1300_T0915_4_M11</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>25441_20700_1300_T0873_4_M11</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1830</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2010</v>
+      </c>
+      <c r="T16" t="n">
+        <v>180</v>
+      </c>
+      <c r="U16" t="n">
+        <v>120</v>
+      </c>
+      <c r="V16" t="n">
+        <v>60</v>
+      </c>
+      <c r="W16" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>67</v>
+      </c>
+      <c r="C17" t="n">
+        <v>71</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>setup_plus_idle</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>25441_20700_1300_T0873_4_M11</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>26300_20700_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>2010</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2130</v>
+      </c>
+      <c r="T17" t="n">
+        <v>120</v>
+      </c>
+      <c r="U17" t="n">
+        <v>60</v>
+      </c>
+      <c r="V17" t="n">
+        <v>60</v>
+      </c>
+      <c r="W17" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71</v>
+      </c>
+      <c r="C18" t="n">
+        <v>73</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>26300_20700_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>32470_12400_1300_T01521_4_M11</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>2130</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2190</v>
+      </c>
+      <c r="T18" t="n">
+        <v>60</v>
+      </c>
+      <c r="U18" t="n">
+        <v>60</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>pure_idle</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>31739_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>30234_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>240</v>
+      </c>
+      <c r="S19" t="n">
+        <v>570</v>
+      </c>
+      <c r="T19" t="n">
+        <v>330</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>330</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>30260_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>32019_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>660</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1020</v>
+      </c>
+      <c r="T20" t="n">
+        <v>360</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>360</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>41</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>32019_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>32017_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1230</v>
+      </c>
+      <c r="T21" t="n">
+        <v>210</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>210</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>49</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>32018_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>32267_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>1470</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T22" t="n">
+        <v>30</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>30</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>50</v>
+      </c>
+      <c r="C23" t="n">
+        <v>56</v>
+      </c>
+      <c r="D23" t="n">
         <v>6</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>32267_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>32016_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>1500</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1680</v>
+      </c>
+      <c r="T23" t="n">
+        <v>180</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>180</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>56</v>
+      </c>
+      <c r="C24" t="n">
+        <v>57</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>32016_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>31600_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>1680</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1710</v>
+      </c>
+      <c r="T24" t="n">
+        <v>30</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>30</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>61</v>
+      </c>
+      <c r="C25" t="n">
+        <v>70</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>31602_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>32363_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>1830</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2100</v>
+      </c>
+      <c r="T25" t="n">
+        <v>270</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>270</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>74</v>
+      </c>
+      <c r="C26" t="n">
+        <v>85</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>32363_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>32265_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2220</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2550</v>
+      </c>
+      <c r="T26" t="n">
+        <v>330</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>330</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>31739_20902_1300_T02600|W2032_4_M10</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>30234_20902_1300_T02560_4_M10</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>60</v>
+      </c>
+      <c r="S27" t="n">
+        <v>180</v>
+      </c>
+      <c r="T27" t="n">
+        <v>120</v>
+      </c>
+      <c r="U27" t="n">
+        <v>120</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>30234_20902_1300_T02560_4_M10</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>30260_20902_1300_T02089_4_M10</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>240</v>
+      </c>
+      <c r="S28" t="n">
+        <v>360</v>
+      </c>
+      <c r="T28" t="n">
+        <v>120</v>
+      </c>
+      <c r="U28" t="n">
+        <v>120</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>30260_20902_1300_T02089_4_M10</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>32017_20902_1300_T02319_4_M11</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>390</v>
+      </c>
+      <c r="S29" t="n">
+        <v>510</v>
+      </c>
+      <c r="T29" t="n">
+        <v>120</v>
+      </c>
+      <c r="U29" t="n">
+        <v>120</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>32017_20902_1300_T02319_4_M11</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>750</v>
+      </c>
+      <c r="S30" t="n">
+        <v>870</v>
+      </c>
+      <c r="T30" t="n">
+        <v>120</v>
+      </c>
+      <c r="U30" t="n">
+        <v>120</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>900</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1020</v>
+      </c>
+      <c r="T31" t="n">
+        <v>120</v>
+      </c>
+      <c r="U31" t="n">
+        <v>120</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>34</v>
+      </c>
+      <c r="C32" t="n">
+        <v>38</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1140</v>
+      </c>
+      <c r="T32" t="n">
+        <v>120</v>
+      </c>
+      <c r="U32" t="n">
+        <v>120</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="n">
+        <v>46</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>1380</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T33" t="n">
+        <v>120</v>
+      </c>
+      <c r="U33" t="n">
+        <v>120</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" t="n">
+        <v>54</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>1500</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1620</v>
+      </c>
+      <c r="T34" t="n">
+        <v>120</v>
+      </c>
+      <c r="U34" t="n">
+        <v>120</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>59</v>
+      </c>
+      <c r="C35" t="n">
+        <v>63</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>25296_20300_1300_T02668_4_M11</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>염료</t>
+        </is>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>(3, '안료', '염료', False, False, False, False)</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>1770</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1890</v>
+      </c>
+      <c r="T35" t="n">
+        <v>120</v>
+      </c>
+      <c r="U35" t="n">
+        <v>120</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>63</v>
+      </c>
+      <c r="C36" t="n">
+        <v>67</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>25296_20300_1300_T02668_4_M11</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>25441_20300_1300_T02606_4_M11</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>염료</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>염료</t>
+        </is>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>(3, '염료', '염료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>1890</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2010</v>
+      </c>
+      <c r="T36" t="n">
+        <v>120</v>
+      </c>
+      <c r="U36" t="n">
+        <v>120</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>67</v>
+      </c>
+      <c r="C37" t="n">
+        <v>71</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>25441_20300_1300_T02606_4_M11</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>26300_20300_1300_T02624_4_M11</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>염료</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>염료</t>
+        </is>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>(3, '염료', '염료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2010</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2130</v>
+      </c>
+      <c r="T37" t="n">
+        <v>120</v>
+      </c>
+      <c r="U37" t="n">
+        <v>120</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>71</v>
+      </c>
+      <c r="C38" t="n">
+        <v>75</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>26300_20300_1300_T02624_4_M11</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>27870_20300_1300_T02670_4_M11</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>염료</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>염료</t>
+        </is>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>(3, '염료', '염료', False, False, True, False)</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2130</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T38" t="n">
+        <v>120</v>
+      </c>
+      <c r="U38" t="n">
+        <v>120</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>31739_20500_1300_WRF065_4_M10</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>no_setup_machine</t>
         </is>
       </c>
-      <c r="R14" t="n">
-        <v>2580</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2760</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="R39" t="n">
+        <v>90</v>
+      </c>
+      <c r="S39" t="n">
+        <v>150</v>
+      </c>
+      <c r="T39" t="n">
+        <v>60</v>
+      </c>
+      <c r="U39" t="n">
+        <v>60</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>31739_20500_1300_WRF065_4_M10</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>30234_20500_1300_W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
         <v>180</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>180</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
+      <c r="S40" t="n">
+        <v>300</v>
+      </c>
+      <c r="T40" t="n">
+        <v>120</v>
+      </c>
+      <c r="U40" t="n">
+        <v>120</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>30234_20500_1300_W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>330</v>
+      </c>
+      <c r="S41" t="n">
+        <v>390</v>
+      </c>
+      <c r="T41" t="n">
+        <v>60</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>60</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>18</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>30234_20702_1300_T02150_4_M10</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>420</v>
+      </c>
+      <c r="S42" t="n">
+        <v>540</v>
+      </c>
+      <c r="T42" t="n">
+        <v>120</v>
+      </c>
+      <c r="U42" t="n">
+        <v>120</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="n">
+        <v>25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>setup_plus_idle</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>32017_20706_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>600</v>
+      </c>
+      <c r="S43" t="n">
+        <v>750</v>
+      </c>
+      <c r="T43" t="n">
+        <v>150</v>
+      </c>
+      <c r="U43" t="n">
+        <v>60</v>
+      </c>
+      <c r="V43" t="n">
+        <v>90</v>
+      </c>
+      <c r="W43" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" t="n">
+        <v>28</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>32017_20706_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>32018_20706_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>840</v>
+      </c>
+      <c r="S44" t="n">
+        <v>900</v>
+      </c>
+      <c r="T44" t="n">
+        <v>60</v>
+      </c>
+      <c r="U44" t="n">
+        <v>60</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>31</v>
+      </c>
+      <c r="C45" t="n">
+        <v>34</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>setup_plus_idle</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>32018_20706_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>32019_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>930</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1020</v>
+      </c>
+      <c r="T45" t="n">
+        <v>90</v>
+      </c>
+      <c r="U45" t="n">
+        <v>60</v>
+      </c>
+      <c r="V45" t="n">
+        <v>30</v>
+      </c>
+      <c r="W45" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" t="n">
+        <v>34</v>
+      </c>
+      <c r="C46" t="n">
+        <v>36</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>32017_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1080</v>
+      </c>
+      <c r="T46" t="n">
+        <v>60</v>
+      </c>
+      <c r="U46" t="n">
+        <v>60</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>42</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>32018_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1260</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1380</v>
+      </c>
+      <c r="T47" t="n">
+        <v>120</v>
+      </c>
+      <c r="U47" t="n">
+        <v>120</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>setup_plus_idle</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>32267_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>1410</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T48" t="n">
+        <v>90</v>
+      </c>
+      <c r="U48" t="n">
+        <v>60</v>
+      </c>
+      <c r="V48" t="n">
+        <v>30</v>
+      </c>
+      <c r="W48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4</v>
+      </c>
+      <c r="B49" t="n">
+        <v>50</v>
+      </c>
+      <c r="C49" t="n">
+        <v>52</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>1500</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1560</v>
+      </c>
+      <c r="T49" t="n">
+        <v>60</v>
+      </c>
+      <c r="U49" t="n">
+        <v>60</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>54</v>
+      </c>
+      <c r="C50" t="n">
+        <v>56</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1620</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1680</v>
+      </c>
+      <c r="T50" t="n">
+        <v>60</v>
+      </c>
+      <c r="U50" t="n">
+        <v>60</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>59</v>
+      </c>
+      <c r="C51" t="n">
+        <v>63</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>31602_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>25296_20700_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>1770</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1890</v>
+      </c>
+      <c r="T51" t="n">
+        <v>120</v>
+      </c>
+      <c r="U51" t="n">
+        <v>120</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="n">
+        <v>65</v>
+      </c>
+      <c r="C52" t="n">
+        <v>67</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>32363_20706_1300_W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>32363_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>1950</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2010</v>
+      </c>
+      <c r="T52" t="n">
+        <v>60</v>
+      </c>
+      <c r="U52" t="n">
+        <v>60</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>70</v>
+      </c>
+      <c r="C53" t="n">
+        <v>74</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>32363_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2100</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2220</v>
+      </c>
+      <c r="T53" t="n">
+        <v>120</v>
+      </c>
+      <c r="U53" t="n">
+        <v>120</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>78</v>
+      </c>
+      <c r="C54" t="n">
+        <v>80</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>32265_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2340</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2400</v>
+      </c>
+      <c r="T54" t="n">
+        <v>60</v>
+      </c>
+      <c r="U54" t="n">
+        <v>60</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>85</v>
+      </c>
+      <c r="C55" t="n">
+        <v>89</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>32265_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>27870_20700_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2550</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2670</v>
+      </c>
+      <c r="T55" t="n">
+        <v>120</v>
+      </c>
+      <c r="U55" t="n">
+        <v>120</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/schedule_gaps_detailed.xlsx
+++ b/python_engine/data/output/schedule_gaps_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,21 +1803,21 @@
         <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>32470_12400_1300_T01521_4_M11</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1863,16 +1863,16 @@
         <v>2010</v>
       </c>
       <c r="S17" t="n">
-        <v>2130</v>
+        <v>2070</v>
       </c>
       <c r="T17" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U17" t="n">
         <v>60</v>
       </c>
       <c r="V17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>60</v>
@@ -1880,49 +1880,49 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>pure_idle</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>31739_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>32470_12400_1300_T01521_4_M11</t>
+          <t>30234_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="M18" t="b">
@@ -1939,26 +1939,26 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>no_setup_machine</t>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2130</v>
+        <v>240</v>
       </c>
       <c r="S18" t="n">
-        <v>2190</v>
+        <v>570</v>
       </c>
       <c r="T18" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="U18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="W18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1966,13 +1966,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1983,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>31739_20906_1300_None_4_M10</t>
+          <t>30260_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>30234_20906_1300_None_4_M10</t>
+          <t>32019_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2026,19 +2026,19 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="S19" t="n">
-        <v>570</v>
+        <v>1020</v>
       </c>
       <c r="T19" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2066,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>30260_20906_1300_None_4_M10</t>
+          <t>32019_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>32019_20906_1300_None_4_M11</t>
+          <t>32017_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2109,19 +2109,19 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>660</v>
+        <v>1020</v>
       </c>
       <c r="S20" t="n">
-        <v>1020</v>
+        <v>1230</v>
       </c>
       <c r="T20" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2149,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>32019_20906_1300_None_4_M11</t>
+          <t>32018_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>32017_20906_1300_None_4_M11</t>
+          <t>32267_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2192,19 +2192,19 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1020</v>
+        <v>1470</v>
       </c>
       <c r="S21" t="n">
-        <v>1230</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2232,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>32018_20906_1300_None_4_M11</t>
+          <t>32267_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>32267_20906_1300_None_4_M11</t>
+          <t>32016_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2275,19 +2275,19 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1470</v>
+        <v>1500</v>
       </c>
       <c r="S22" t="n">
-        <v>1500</v>
+        <v>1680</v>
       </c>
       <c r="T22" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2315,19 +2315,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>32267_20906_1300_None_4_M11</t>
+          <t>32016_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>32016_20906_1300_None_4_M11</t>
+          <t>31600_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2358,19 +2358,19 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1500</v>
+        <v>1680</v>
       </c>
       <c r="S23" t="n">
-        <v>1680</v>
+        <v>1710</v>
       </c>
       <c r="T23" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C24" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2398,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>32016_20906_1300_None_4_M11</t>
+          <t>31602_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>31600_20906_1300_None_4_M11</t>
+          <t>32363_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2441,19 +2441,19 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1680</v>
+        <v>1830</v>
       </c>
       <c r="S24" t="n">
-        <v>1710</v>
+        <v>2100</v>
       </c>
       <c r="T24" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2464,13 +2464,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>31602_20906_1300_None_4_M11</t>
+          <t>32363_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>32363_20906_1300_None_4_M11</t>
+          <t>32265_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1830</v>
+        <v>2220</v>
       </c>
       <c r="S25" t="n">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="T25" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,49 +2544,49 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>32363_20906_1300_None_4_M11</t>
+          <t>31739_20902_1300_T02600|W2032_4_M10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>32265_20906_1300_None_4_M11</t>
+          <t>30234_20902_1300_T02560_4_M10</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>인쇄</t>
+          <t>안료</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>인쇄</t>
+          <t>안료</t>
         </is>
       </c>
       <c r="M26" t="b">
@@ -2599,30 +2599,30 @@
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2220</v>
+        <v>60</v>
       </c>
       <c r="S26" t="n">
-        <v>2550</v>
+        <v>180</v>
       </c>
       <c r="T26" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V26" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -2630,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
         <v>4</v>
@@ -2654,12 +2654,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>31739_20902_1300_T02600|W2032_4_M10</t>
+          <t>30234_20902_1300_T02560_4_M10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>30234_20902_1300_T02560_4_M10</t>
+          <t>30260_20902_1300_T02089_4_M10</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="S27" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="T27" t="n">
         <v>120</v>
@@ -2713,10 +2713,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
@@ -2737,12 +2737,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>30234_20902_1300_T02560_4_M10</t>
+          <t>30260_20902_1300_T02089_4_M10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>30260_20902_1300_T02089_4_M10</t>
+          <t>32017_20902_1300_T02319_4_M11</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2773,10 +2773,10 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="S28" t="n">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="T28" t="n">
         <v>120</v>
@@ -2796,10 +2796,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>4</v>
@@ -2820,12 +2820,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>30260_20902_1300_T02089_4_M10</t>
+          <t>32017_20902_1300_T02319_4_M11</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>32017_20902_1300_T02319_4_M11</t>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="S29" t="n">
-        <v>510</v>
+        <v>870</v>
       </c>
       <c r="T29" t="n">
         <v>120</v>
@@ -2879,10 +2879,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>4</v>
@@ -2903,12 +2903,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>32017_20902_1300_T02319_4_M11</t>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="S30" t="n">
-        <v>870</v>
+        <v>1020</v>
       </c>
       <c r="T30" t="n">
         <v>120</v>
@@ -2962,10 +2962,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
@@ -2986,12 +2986,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="S31" t="n">
-        <v>1020</v>
+        <v>1140</v>
       </c>
       <c r="T31" t="n">
         <v>120</v>
@@ -3045,10 +3045,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C32" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>4</v>
@@ -3069,12 +3069,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1020</v>
+        <v>1380</v>
       </c>
       <c r="S32" t="n">
-        <v>1140</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>120</v>
@@ -3128,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C33" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
@@ -3152,12 +3152,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3188,10 +3188,10 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1380</v>
+        <v>1500</v>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T33" t="n">
         <v>120</v>
@@ -3211,10 +3211,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C34" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+          <t>25296_20300_1300_T02668_4_M11</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="M34" t="b">
@@ -3260,21 +3260,21 @@
         <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>(3, '안료', '안료', False, False, True, False)</t>
+          <t>(3, '안료', '염료', False, False, False, False)</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1500</v>
+        <v>1770</v>
       </c>
       <c r="S34" t="n">
-        <v>1620</v>
+        <v>1890</v>
       </c>
       <c r="T34" t="n">
         <v>120</v>
@@ -3294,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -3318,17 +3318,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+          <t>25296_20300_1300_T02668_4_M11</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>25296_20300_1300_T02668_4_M11</t>
+          <t>25441_20300_1300_T02606_4_M11</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3343,21 +3343,21 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>(3, '안료', '염료', False, False, False, False)</t>
+          <t>(3, '염료', '염료', False, False, True, False)</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1770</v>
+        <v>1890</v>
       </c>
       <c r="S35" t="n">
-        <v>1890</v>
+        <v>2010</v>
       </c>
       <c r="T35" t="n">
         <v>120</v>
@@ -3377,10 +3377,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C36" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D36" t="n">
         <v>4</v>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>25296_20300_1300_T02668_4_M11</t>
+          <t>25441_20300_1300_T02606_4_M11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>25441_20300_1300_T02606_4_M11</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3437,10 +3437,10 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1890</v>
+        <v>2010</v>
       </c>
       <c r="S36" t="n">
-        <v>2010</v>
+        <v>2130</v>
       </c>
       <c r="T36" t="n">
         <v>120</v>
@@ -3460,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C37" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D37" t="n">
         <v>4</v>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>25441_20300_1300_T02606_4_M11</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>27870_20300_1300_T02670_4_M11</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3520,10 +3520,10 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2010</v>
+        <v>2130</v>
       </c>
       <c r="S37" t="n">
-        <v>2130</v>
+        <v>2250</v>
       </c>
       <c r="T37" t="n">
         <v>120</v>
@@ -3540,16 +3540,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="n">
-        <v>71</v>
-      </c>
       <c r="C38" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3557,32 +3557,32 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>31739_20702_1300_T02150|W1818_4_M10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>27870_20300_1300_T02670_4_M11</t>
+          <t>31739_20500_1300_WRF065_4_M10</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M38" t="b">
@@ -3595,30 +3595,30 @@
         <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>(3, '염료', '염료', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2130</v>
+        <v>90</v>
       </c>
       <c r="S38" t="n">
-        <v>2250</v>
+        <v>150</v>
       </c>
       <c r="T38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -3626,13 +3626,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+          <t>31739_20500_1300_WRF065_4_M10</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>31739_20500_1300_WRF065_4_M10</t>
+          <t>30234_20500_1300_W2010_4_M10</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3686,22 +3686,22 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="S39" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="T39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -3709,36 +3709,36 @@
         <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>pure_idle</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>31739_20500_1300_WRF065_4_M10</t>
+          <t>30234_20500_1300_W2010_4_M10</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>30234_20500_1300_W2010_4_M10</t>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3769,22 +3769,22 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="S40" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="T40" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U40" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="W40" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3792,36 +3792,36 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>30234_20500_1300_W2010_4_M10</t>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+          <t>30234_20702_1300_T02150_4_M10</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3852,22 +3852,22 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="S41" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="T41" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V41" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -3875,36 +3875,36 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>setup_plus_idle</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+          <t>30260_20702_1300_T02150|W1818_4_M10</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>30234_20702_1300_T02150_4_M10</t>
+          <t>32017_20706_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3935,22 +3935,22 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="S42" t="n">
-        <v>540</v>
+        <v>750</v>
       </c>
       <c r="T42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="U42" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W42" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -3958,36 +3958,36 @@
         <v>4</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+          <t>32017_20706_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>32017_20706_1300_None_4_M11</t>
+          <t>32018_20706_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4018,19 +4018,19 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="S43" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T43" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="U43" t="n">
         <v>60</v>
       </c>
       <c r="V43" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>60</v>
@@ -4041,79 +4041,79 @@
         <v>4</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C44" t="n">
+        <v>34</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>setup_plus_idle</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>32018_20706_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>32019_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>930</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1020</v>
+      </c>
+      <c r="T44" t="n">
+        <v>90</v>
+      </c>
+      <c r="U44" t="n">
+        <v>60</v>
+      </c>
+      <c r="V44" t="n">
         <v>30</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>pure_setup</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>32017_20706_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>32018_20706_1300_T02149_4_M11</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>no_setup_machine</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>840</v>
-      </c>
-      <c r="S44" t="n">
-        <v>900</v>
-      </c>
-      <c r="T44" t="n">
-        <v>60</v>
-      </c>
-      <c r="U44" t="n">
-        <v>60</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>60</v>
@@ -4124,36 +4124,36 @@
         <v>4</v>
       </c>
       <c r="B45" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C45" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F45" t="n">
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>32018_20706_1300_T02149_4_M11</t>
+          <t>32019_20706_1300_T02149|W1817_4_M11</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>32019_20500_1300_WRF065_4_M11</t>
+          <t>32017_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4184,19 +4184,19 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>930</v>
+        <v>1020</v>
       </c>
       <c r="S45" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="T45" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="U45" t="n">
         <v>60</v>
       </c>
       <c r="V45" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>60</v>
@@ -4207,13 +4207,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4221,22 +4221,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+          <t>32018_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>32017_20500_1300_WRF065_4_M11</t>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1020</v>
+        <v>1260</v>
       </c>
       <c r="S46" t="n">
-        <v>1080</v>
+        <v>1380</v>
       </c>
       <c r="T46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -4290,36 +4290,36 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>setup_plus_idle</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>32018_20500_1300_WRF065_4_M11</t>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+          <t>32267_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4350,22 +4350,22 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1260</v>
+        <v>1410</v>
       </c>
       <c r="S47" t="n">
-        <v>1380</v>
+        <v>1500</v>
       </c>
       <c r="T47" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="U47" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W47" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
@@ -4373,36 +4373,36 @@
         <v>4</v>
       </c>
       <c r="B48" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F48" t="n">
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+          <t>32267_20702_1300_T02150|W1818_4_M11</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>32267_20500_1300_WRF065_4_M11</t>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4433,19 +4433,19 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1410</v>
+        <v>1500</v>
       </c>
       <c r="S48" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="T48" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="U48" t="n">
         <v>60</v>
       </c>
       <c r="V48" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
         <v>60</v>
@@ -4456,10 +4456,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -4480,12 +4480,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4516,10 +4516,10 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="S49" t="n">
-        <v>1560</v>
+        <v>1680</v>
       </c>
       <c r="T49" t="n">
         <v>60</v>
@@ -4539,13 +4539,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4553,22 +4553,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+          <t>31602_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+          <t>25296_20700_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4599,22 +4599,22 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1620</v>
+        <v>1770</v>
       </c>
       <c r="S50" t="n">
-        <v>1680</v>
+        <v>1890</v>
       </c>
       <c r="T50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -4622,13 +4622,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C51" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4636,22 +4636,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>31602_20500_1300_WRF065_4_M11</t>
+          <t>32363_20706_1300_W1817_4_M11</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>25296_20700_1300_None_4_M11</t>
+          <t>32363_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4682,22 +4682,22 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1770</v>
+        <v>1950</v>
       </c>
       <c r="S51" t="n">
-        <v>1890</v>
+        <v>2010</v>
       </c>
       <c r="T51" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U51" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
@@ -4705,13 +4705,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C52" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4719,22 +4719,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>32363_20706_1300_W1817_4_M11</t>
+          <t>32363_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>32363_20500_1300_WRF065_4_M11</t>
+          <t>26300_20700_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4765,22 +4765,22 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="S52" t="n">
-        <v>2010</v>
+        <v>2220</v>
       </c>
       <c r="T52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -4788,13 +4788,13 @@
         <v>4</v>
       </c>
       <c r="B53" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C53" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4802,22 +4802,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>32363_20500_1300_WRF065_4_M11</t>
+          <t>32265_20702_1300_T02150|W1818_4_M11</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+          <t>32265_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4848,22 +4848,22 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2100</v>
+        <v>2340</v>
       </c>
       <c r="S53" t="n">
-        <v>2220</v>
+        <v>2400</v>
       </c>
       <c r="T53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
@@ -4871,13 +4871,13 @@
         <v>4</v>
       </c>
       <c r="B54" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C54" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4885,22 +4885,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+          <t>32265_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>32265_20500_1300_WRF065_4_M11</t>
+          <t>27870_20700_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4931,104 +4931,21 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2340</v>
+        <v>2550</v>
       </c>
       <c r="S54" t="n">
-        <v>2400</v>
+        <v>2670</v>
       </c>
       <c r="T54" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U54" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="n">
-        <v>85</v>
-      </c>
-      <c r="C55" t="n">
-        <v>89</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>pure_setup</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>32265_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>27870_20700_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="b">
-        <v>0</v>
-      </c>
-      <c r="O55" t="b">
-        <v>1</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>no_setup_machine</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>2550</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2670</v>
-      </c>
-      <c r="T55" t="n">
-        <v>120</v>
-      </c>
-      <c r="U55" t="n">
-        <v>120</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
         <v>120</v>
       </c>
     </row>
